--- a/DSA/Articles.xlsx
+++ b/DSA/Articles.xlsx
@@ -45,9 +45,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
-    <numFmt numFmtId="176" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="176" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="177" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="178" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
+    <numFmt numFmtId="178" formatCode="_ &quot;₹&quot;* #,##0_ ;_ &quot;₹&quot;* \-#,##0_ ;_ &quot;₹&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="179" formatCode="_ &quot;₹&quot;* #,##0.00_ ;_ &quot;₹&quot;* \-#,##0.00_ ;_ &quot;₹&quot;* &quot;-&quot;??_ ;_ @_ "/>
   </numFmts>
   <fonts count="23">
@@ -61,23 +61,20 @@
     <font>
       <sz val="10"/>
       <color theme="1"/>
-      <name val="Calibri"/>
+      <name val="C059"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
       <sz val="10"/>
       <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
+      <name val="C059"/>
+      <charset val="0"/>
     </font>
     <font>
       <sz val="10"/>
-      <name val="Calibri"/>
+      <name val="C059"/>
       <charset val="134"/>
-      <scheme val="minor"/>
     </font>
     <font>
       <u/>
@@ -88,6 +85,20 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <u/>
       <sz val="11"/>
       <color rgb="FF800080"/>
@@ -98,14 +109,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -120,6 +123,60 @@
     </font>
     <font>
       <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="15"/>
       <color theme="3"/>
       <name val="Calibri"/>
@@ -128,7 +185,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -142,68 +199,8 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <sz val="11"/>
       <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -218,7 +215,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF3F3F76"/>
+      <color rgb="FF9C6500"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -233,187 +230,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -442,15 +439,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -462,6 +450,21 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -481,21 +484,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -510,8 +498,8 @@
       <left/>
       <right/>
       <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -520,7 +508,16 @@
       <right/>
       <top/>
       <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -529,142 +526,142 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="22" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="15" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="5" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="179" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="5" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="22" fillId="31" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="4" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="6" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="3" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="8" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="2" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="178" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="15" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="176" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="177" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="5" borderId="1" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -674,11 +671,8 @@
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
@@ -1041,10 +1035,10 @@
   <dimension ref="A2:B8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B16" sqref="B16"/>
+      <selection activeCell="B10" sqref="B10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="9" defaultRowHeight="12.75" outlineLevelRow="7" outlineLevelCol="1"/>
+  <sheetFormatPr defaultColWidth="9" defaultRowHeight="16.5" outlineLevelRow="7" outlineLevelCol="1"/>
   <cols>
     <col min="1" max="1" width="31.3" style="1" customWidth="1"/>
     <col min="2" max="2" width="104.5" style="1" customWidth="1"/>
@@ -1052,37 +1046,37 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:2">
-      <c r="A2" s="2" t="s">
+      <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="3" t="s">
+      <c r="B2" s="2" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:2">
-      <c r="A4" s="2" t="s">
+      <c r="A4" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="B4" s="2" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="6" spans="1:2">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="B6" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="7" spans="2:2">
-      <c r="B7" s="3" t="s">
+      <c r="B7" s="2" t="s">
         <v>6</v>
       </c>
     </row>
     <row r="8" spans="1:2">
-      <c r="A8" s="4"/>
-      <c r="B8" s="3" t="s">
+      <c r="A8" s="3"/>
+      <c r="B8" s="2" t="s">
         <v>7</v>
       </c>
     </row>
